--- a/Front-end/HR-Frontend/src/assets/links/ImportEmployeeTemplate.xlsx
+++ b/Front-end/HR-Frontend/src/assets/links/ImportEmployeeTemplate.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>email</t>
   </si>
@@ -72,9 +72,6 @@
     <t>work_type_id</t>
   </si>
   <si>
-    <t>Khaled Ahmed</t>
-  </si>
-  <si>
     <t>secret123</t>
   </si>
   <si>
@@ -99,13 +96,19 @@
     <t>[1]</t>
   </si>
   <si>
-    <t>khaled2@test.com</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>[1,2]</t>
+  </si>
+  <si>
+    <t>01234567896</t>
+  </si>
+  <si>
+    <t>Mohamed Ali</t>
+  </si>
+  <si>
+    <t>mohamed@test.com</t>
   </si>
 </sst>
 </file>
@@ -173,12 +176,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,7 +491,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -561,19 +565,19 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>1234567897</v>
-      </c>
-      <c r="E2">
-        <v>1234509879</v>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F2">
         <v>12345678901235</v>
@@ -582,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2">
         <v>5000</v>
@@ -594,25 +598,25 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Front-end/HR-Frontend/src/assets/links/ImportEmployeeTemplate.xlsx
+++ b/Front-end/HR-Frontend/src/assets/links/ImportEmployeeTemplate.xlsx
@@ -90,9 +90,6 @@
     <t>2024-09-01</t>
   </si>
   <si>
-    <t>["employee"]</t>
-  </si>
-  <si>
     <t>[1]</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>mohamed@test.com</t>
+  </si>
+  <si>
+    <t>["Employee"]</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -565,19 +565,19 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>12345678901235</v>
@@ -610,13 +610,13 @@
         <v>22</v>
       </c>
       <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
         <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
